--- a/categories/it1/money_topwords.xlsx
+++ b/categories/it1/money_topwords.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">gem</t>
   </si>
@@ -28,25 +28,31 @@
     <t xml:space="preserve">coin</t>
   </si>
   <si>
-    <t xml:space="preserve">win</t>
-  </si>
-  <si>
     <t xml:space="preserve">money</t>
   </si>
   <si>
     <t xml:space="preserve">buy</t>
   </si>
   <si>
-    <t xml:space="preserve">hard</t>
-  </si>
-  <si>
     <t xml:space="preserve">pay</t>
   </si>
   <si>
+    <t xml:space="preserve">pay win</t>
+  </si>
+  <si>
     <t xml:space="preserve">cost</t>
   </si>
   <si>
-    <t xml:space="preserve">lot</t>
+    <t xml:space="preserve">coin gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spend</t>
   </si>
   <si>
     <t xml:space="preserve">gems</t>
@@ -58,22 +64,154 @@
     <t xml:space="preserve">expensive</t>
   </si>
   <si>
-    <t xml:space="preserve">high</t>
+    <t xml:space="preserve">earn</t>
   </si>
   <si>
     <t xml:space="preserve">diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">earn</t>
-  </si>
-  <si>
     <t xml:space="preserve">reward</t>
   </si>
   <si>
-    <t xml:space="preserve">waste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save</t>
+    <t xml:space="preserve">buy gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spend money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weapon cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lot coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem just</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earn coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game spend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waste money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard earn</t>
   </si>
 </sst>
 </file>
@@ -190,24 +328,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.3603238866397"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -215,7 +353,7 @@
         <v>553.001876172608</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -223,103 +361,103 @@
         <v>458.724202626642</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>187.148217636023</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179.174484052533</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>179.174484052533</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161.350844277674</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>161.350844277674</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134.146341463415</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>152.439024390244</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88.1801125703565</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>134.146341463415</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78.3302063789869</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>78.3302063789869</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76.9230769230769</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>69.8874296435272</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65.6660412757974</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>52.0637898686679</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61.4446529080675</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>49.718574108818</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60.0375234521576</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>39.3996247654784</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52.0637898686679</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>32.8330206378987</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49.718574108818</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>28.6116322701689</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39.3996247654784</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -327,28 +465,396 @@
         <v>28.6116322701689</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>28.1425891181989</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28.6116322701689</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>26.266416510319</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28.1425891181989</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>24.859287054409</v>
+        <v>20.1688555347092</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>19.2307692307692</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>18.7617260787993</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>16.8855534709193</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>16.4165103189493</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>16.4165103189493</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>15.0093808630394</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>14.5403377110694</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>13.6022514071295</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>13.6022514071295</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>13.1332082551595</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>13.1332082551595</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>12.6641651031895</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>12.1951219512195</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>12.1951219512195</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>12.1951219512195</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>11.7260787992495</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>11.2570356472796</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>11.2570356472796</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>10.7879924953096</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10.7879924953096</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>10.3189493433396</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>9.84990619136961</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>9.38086303939962</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>9.38086303939962</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>9.38086303939962</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>9.38086303939962</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>8.91181988742964</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>8.44277673545966</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>8.44277673545966</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>8.44277673545966</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>8.44277673545966</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>7.5046904315197</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>7.5046904315197</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>7.03564727954972</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>7.03564727954972</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>7.03564727954972</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>7.03564727954972</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>6.56660412757974</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>6.56660412757974</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>6.56660412757974</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>6.56660412757974</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>6.09756097560976</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>6.09756097560976</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>5.62851782363978</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>5.62851782363978</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>5.62851782363978</v>
       </c>
     </row>
   </sheetData>
